--- a/BD/CODIGO RECAUDO.XLSX
+++ b/BD/CODIGO RECAUDO.XLSX
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gorderiquev\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LABS\Python\bancos\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{858001E8-0951-4158-80E0-1FBB5924D148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B7AC0501-82E5-4E32-AF65-452AD095BE2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="COD.RECAUDO" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COD.RECAUDO'!$A$1:$F$344</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>s05451</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9C89ABB5-256E-4E65-B43A-D7EE320402D0}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{ACC8BB14-BB0F-47CC-8FF7-84D3C4903A9F}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A7AB6E6E-B216-4819-9472-7AE187C2FD27}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9095" uniqueCount="2135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9094" uniqueCount="2135">
   <si>
     <t>SUCURSALES</t>
   </si>
@@ -6661,11 +6660,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6779,6 +6778,13 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -6902,7 +6908,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7076,11 +7082,12 @@
     <xf numFmtId="49" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{A9D03403-CD46-469A-BCAE-A96758AF8F57}"/>
-    <cellStyle name="Normal 5" xfId="2" xr:uid="{205F99C6-A84F-4154-AD58-C68ECFB09551}"/>
+    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 5" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7391,12 +7398,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57662D4D-F74E-4429-982F-F782ED6D789E}">
-  <dimension ref="A1:I2022"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2022"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1921" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1936" sqref="B1936"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7410,7 +7417,7 @@
     <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
         <v>2134</v>
       </c>
@@ -7430,7 +7437,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="54">
         <v>20232258242</v>
       </c>
@@ -7442,7 +7449,7 @@
       <c r="E2" s="21"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="54">
         <v>20537630222</v>
       </c>
@@ -7454,7 +7461,7 @@
       <c r="E3" s="21"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="52">
         <v>20479437875</v>
       </c>
@@ -7472,7 +7479,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="52">
         <v>10244307</v>
       </c>
@@ -7488,10 +7495,9 @@
       <c r="E5" s="51"/>
       <c r="F5" s="50"/>
       <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="48"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
         <v>2124</v>
       </c>
@@ -7507,7 +7513,7 @@
       <c r="E6" s="21"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>80644048</v>
       </c>
@@ -7523,7 +7529,7 @@
       <c r="E7" s="21"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>40508230</v>
       </c>
@@ -7539,7 +7545,7 @@
       <c r="E8" s="21"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>16400155</v>
       </c>
@@ -7559,7 +7565,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>25100271050</v>
       </c>
@@ -7575,7 +7581,7 @@
       <c r="E10" s="21"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>17602360</v>
       </c>
@@ -7591,7 +7597,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>17621226</v>
       </c>
@@ -7606,8 +7612,9 @@
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="G12" s="57"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>16569573</v>
       </c>
@@ -7627,7 +7634,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>75415142</v>
       </c>
@@ -7647,7 +7654,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>43019551</v>
       </c>
@@ -7663,7 +7670,7 @@
       <c r="E15" s="21"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>43733954</v>
       </c>
@@ -8243,7 +8250,7 @@
       <c r="E48" s="21"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>26545434</v>
       </c>
@@ -8261,7 +8268,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>16539356</v>
       </c>
@@ -8277,7 +8284,7 @@
       <c r="E50" s="21"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>41500000573</v>
       </c>
@@ -8292,11 +8299,8 @@
       </c>
       <c r="E51" s="21"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="1" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>21459995</v>
       </c>
@@ -8316,7 +8320,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>25018330</v>
       </c>
@@ -8332,7 +8336,7 @@
       <c r="E53" s="21"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>16671688</v>
       </c>
@@ -8350,7 +8354,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>41100003475</v>
       </c>
@@ -8370,7 +8374,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>42696546</v>
       </c>
@@ -8390,7 +8394,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>16671161</v>
       </c>
@@ -8406,7 +8410,7 @@
       <c r="E57" s="21"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>41800000378</v>
       </c>
@@ -8422,7 +8426,7 @@
       <c r="E58" s="21"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>25100270964</v>
       </c>
@@ -8438,7 +8442,7 @@
       <c r="E59" s="21"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>41100003477</v>
       </c>
@@ -8458,7 +8462,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>25051087</v>
       </c>
@@ -8474,7 +8478,7 @@
       <c r="E61" s="21"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>41000243532</v>
       </c>
@@ -8490,7 +8494,7 @@
       <c r="E62" s="21"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>41100003397</v>
       </c>
@@ -8508,7 +8512,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>41100003436</v>
       </c>
